--- a/biology/Botanique/Queen's_Commonwealth_Canopy/Queen's_Commonwealth_Canopy.xlsx
+++ b/biology/Botanique/Queen's_Commonwealth_Canopy/Queen's_Commonwealth_Canopy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Queen%27s_Commonwealth_Canopy</t>
+          <t>Queen's_Commonwealth_Canopy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Queen's Commonwealth Canopy, littéralement le « Canopée du Commonwealth de la reine », est un programme de conservation de la forêt au sein du Commonwealth. Le programme a commencé en 2015 et, en 2016, il y a seize pays qui en font partie. Il est prévu que les autres pays le rejoignent d'ici 2018[1],[2]. Le Queen's Commonwealth Canopy a été conçu par le député britannique Frank Field dans les années 2000. Lorsqu'il a soulevé l'idée lors d'une réunion au palais de Buckingham, le concept a trouvé le soutien de la reine Élisabeth II[3]. Le Queen's Commonwealth Canopy est officiellement lancé à la réunion des chefs de gouvernement du Commonwealth de 2015 (en) à Malte[4]. Les trois organisations derrière le projet sont la Royal Commonwealth Society (en), la Commonwealth Forestry Association et Cool Earth (en).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Queen's Commonwealth Canopy, littéralement le « Canopée du Commonwealth de la reine », est un programme de conservation de la forêt au sein du Commonwealth. Le programme a commencé en 2015 et, en 2016, il y a seize pays qui en font partie. Il est prévu que les autres pays le rejoignent d'ici 2018,. Le Queen's Commonwealth Canopy a été conçu par le député britannique Frank Field dans les années 2000. Lorsqu'il a soulevé l'idée lors d'une réunion au palais de Buckingham, le concept a trouvé le soutien de la reine Élisabeth II. Le Queen's Commonwealth Canopy est officiellement lancé à la réunion des chefs de gouvernement du Commonwealth de 2015 (en) à Malte. Les trois organisations derrière le projet sont la Royal Commonwealth Society (en), la Commonwealth Forestry Association et Cool Earth (en).
 </t>
         </is>
       </c>
